--- a/StructureDefinition-ext-R5-EvidenceVariable.cha.timeFromEvent.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceVariable.cha.timeFromEvent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
     <t>Human readable description.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -423,7 +423,7 @@
     <t>A human-readable string to clarify or explain concepts about the timeFromEvent.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -454,7 +454,7 @@
     <t>The event used as a base point (reference point) in time.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:event.id</t>
@@ -485,7 +485,7 @@
     <t>Used to express the observation at a defined amount of time before or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:quantity.id</t>
@@ -516,7 +516,7 @@
     <t>Used to express the observation within a period before and/or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:range.id</t>
@@ -882,7 +882,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="127.328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="187.39453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
